--- a/src/test/resources/Examples.xlsx
+++ b/src/test/resources/Examples.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/IdeaProjects/reverso.net-tests/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64EF781B-37A8-B24D-876E-540C47DD3828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214DF317-204D-AD4D-B7A4-7246C1D7B5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16380" xr2:uid="{8AAD19B1-B7D4-C44E-8ABB-0A8F2F244B9A}"/>
+    <workbookView xWindow="-36420" yWindow="440" windowWidth="33600" windowHeight="19380" xr2:uid="{8AAD19B1-B7D4-C44E-8ABB-0A8F2F244B9A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Examles" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,54 +35,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t>This includes tools specifically related to quality assurance.</t>
-  </si>
-  <si>
-    <t>Это включает в себя инструменты, специально ориентированные на обеспечение качества.</t>
-  </si>
-  <si>
-    <t>External quality assurance in particular is much better developed than before.</t>
-  </si>
-  <si>
-    <t>В частности, в Российской Федерации внешнее обеспечение качества является гораздо более развитым, чем прежде.</t>
-  </si>
-  <si>
-    <t>Accreditation gives a minimum quality assurance.</t>
-  </si>
-  <si>
-    <t>Аккредитация - это хотя бы минимальная гарантия качества.</t>
-  </si>
-  <si>
-    <t>Ask if there are any quality assurance measures in place.</t>
-  </si>
-  <si>
-    <t>Поинтересуйтесь, действует ли гарантия качества.</t>
-  </si>
-  <si>
-    <t>The responsibilities include quality assurance, career development and training, audit direction and consultation.</t>
-  </si>
-  <si>
-    <t>В обязанности сотрудника на данной должности входят контроль качества, развитие карьеры и профессиональная подготовка, управление ревизорской деятельностью и консультирование.</t>
-  </si>
-  <si>
-    <t>To set up a translation memories, glossaries and quality assurance, use the Advanced Settings switch.</t>
-  </si>
-  <si>
-    <t>Чтобы настроить память переводов, глоссарии и контроль качества, используйте переключатель Расширенные настройки.</t>
-  </si>
-  <si>
-    <t>Direction of scientific activity: mechanical engineering technology in light industry, manufacturing, quality assurance of glue joints, quality and competitiveness.</t>
-  </si>
-  <si>
-    <t>Направление научной деятельности: технология машиностроения в легкой промышленности, технологическое обеспечение качества клеевых соединений, качество и конкурентоспособность продукции.</t>
-  </si>
-  <si>
-    <t>Beginning a career in any field of work often entails starting out a lower level, and quality assurance is no different.</t>
-  </si>
-  <si>
-    <t>Начало карьеры в любой области работы часто влечет за собой начало более низкого уровня, и обеспечение качества ничем не отличается.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="95">
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Translated text</t>
+  </si>
+  <si>
+    <t>He mentioned that he was doing QA (&lt;em&gt;quality assurance&lt;/em&gt;) for a product.</t>
+  </si>
+  <si>
+    <t>Он сообщил, что он делал QA (&lt;em&gt;обеспечение качества&lt;/em&gt;) для продукта.</t>
+  </si>
+  <si>
+    <t>Это включает в себя инструменты, специально ориентированные на обеспечение качества.</t>
+  </si>
+  <si>
+    <t>This includes tools specifically related to &lt;em&gt;quality assurance&lt;/em&gt;.</t>
+  </si>
+  <si>
+    <t>Это включает в себя инструменты, специально ориентированные на &lt;em&gt;обеспечение качества&lt;/em&gt;.</t>
+  </si>
+  <si>
+    <t>This includes tools specifically related to quality assurance.</t>
   </si>
   <si>
     <t>He mentioned that he was doing QA (quality assurance) for a product.</t>
@@ -91,83 +67,266 @@
     <t>Он сообщил, что он делал QA (обеспечение качества) для продукта.</t>
   </si>
   <si>
-    <t>Annotated entries undergo quality assurance before inclusion into UniProtKB/Swiss-Prot.</t>
-  </si>
-  <si>
-    <t>Аннотированная запись должна пройти контроль качества перед включением в UniProtKB/ Swiss-Prot.</t>
-  </si>
-  <si>
-    <t>Therefore we provide quality assurance for all goods.</t>
-  </si>
-  <si>
-    <t>Помимо этого, мы даем гарантию качества на все товары.</t>
-  </si>
-  <si>
-    <t>Remember, these materials carry a quality assurance of three billion years.</t>
-  </si>
-  <si>
-    <t>Помните, эти вещества несут на себе гарантию качества сроком в три миллиарда лет.</t>
-  </si>
-  <si>
-    <t>Another feature worth noting is the built-in quality assurance function.</t>
-  </si>
-  <si>
-    <t>Другим преимуществом, которое стоит отметить, является встроенная функция контроля качества.</t>
-  </si>
-  <si>
-    <t>And, finally, you should never compromise on quality assurance.</t>
-  </si>
-  <si>
-    <t>И, наконец, вы никогда не должны идти на компромисс по обеспечению качества.</t>
-  </si>
-  <si>
-    <t>A monitoring strategy should therefore address methodology, training and quality assurance.</t>
-  </si>
-  <si>
-    <t>Соответственно, в стратегии мониторинга следует отразить вопросы методологии, подготовки кадров и контроля качества.</t>
-  </si>
-  <si>
-    <t>The sampling included a quality assurance and control regime.</t>
-  </si>
-  <si>
-    <t>Образцы, которые брались, включали в себя режим обеспечения качества и контроля за качеством.</t>
-  </si>
-  <si>
-    <t>Implemented through quality assurance and standardization and safety programmes.</t>
-  </si>
-  <si>
-    <t>Благодаря осуществлению программ гарантии качества и стандартизации и обеспечения техники безопасности.</t>
-  </si>
-  <si>
-    <t>Management follow-up and quality assurance processes were found consistently weak.</t>
-  </si>
-  <si>
-    <t>Было выявлено, что во всех случаях последующая деятельность руководства и процессы обеспечения качества оставляют желать лучшего.</t>
-  </si>
-  <si>
-    <t>Most persistent organic pollutant analyses described in the report included quality assurance and quality control procedures.</t>
-  </si>
-  <si>
-    <t>Большинство анализов стойких органических загрязнителей, о которых идет речь в докладе, проводились с соблюдением процедур гарантий и контроля качества.</t>
-  </si>
-  <si>
-    <t>Any project overexpenditure is highlighted for action through the quality assurance process.</t>
-  </si>
-  <si>
-    <t>В ходе процедуры обеспечения качества все случаи перерасхода средств по проектам отмечаются на предмет принятия соответствующих мер.</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>Translated text</t>
+    <t>Text with tags</t>
+  </si>
+  <si>
+    <t>Translated text with tags</t>
+  </si>
+  <si>
+    <t>обеспечение качества</t>
+  </si>
+  <si>
+    <t>гарантия качества</t>
+  </si>
+  <si>
+    <t>контроль качества</t>
+  </si>
+  <si>
+    <t>беспечение качества</t>
+  </si>
+  <si>
+    <t>гарантию качества</t>
+  </si>
+  <si>
+    <t>контроля качества</t>
+  </si>
+  <si>
+    <t>обеспечению качества</t>
+  </si>
+  <si>
+    <t>обеспечения качества</t>
+  </si>
+  <si>
+    <t>гарантии качества</t>
+  </si>
+  <si>
+    <t>соблюдением</t>
+  </si>
+  <si>
+    <t>Translations</t>
+  </si>
+  <si>
+    <t>External quality assurance in particular is much better developed than before.</t>
+  </si>
+  <si>
+    <t>Accreditation gives a minimum quality assurance.</t>
+  </si>
+  <si>
+    <t>Ask if there are any quality assurance measures in place.</t>
+  </si>
+  <si>
+    <t>The responsibilities include quality assurance, career development and training, audit direction and consultation.</t>
+  </si>
+  <si>
+    <t>To set up a translation memories, glossaries and quality assurance, use the Advanced Settings switch.</t>
+  </si>
+  <si>
+    <t>Direction of scientific activity: mechanical engineering technology in light industry, manufacturing, quality assurance of glue joints, quality and competitiveness.</t>
+  </si>
+  <si>
+    <t>Beginning a career in any field of work often entails starting out a lower level, and quality assurance is no different.</t>
+  </si>
+  <si>
+    <t>Annotated entries undergo quality assurance before inclusion into UniProtKB/Swiss-Prot.</t>
+  </si>
+  <si>
+    <t>Therefore we provide quality assurance for all goods.</t>
+  </si>
+  <si>
+    <t>Remember, these materials carry a quality assurance of three billion years.</t>
+  </si>
+  <si>
+    <t>Another feature worth noting is the built-in quality assurance function.</t>
+  </si>
+  <si>
+    <t>And, finally, you should never compromise on quality assurance.</t>
+  </si>
+  <si>
+    <t>A monitoring strategy should therefore address methodology, training and quality assurance.</t>
+  </si>
+  <si>
+    <t>The sampling included a quality assurance and control regime.</t>
+  </si>
+  <si>
+    <t>Implemented through quality assurance and standardization and safety programmes.</t>
+  </si>
+  <si>
+    <t>Management follow-up and quality assurance processes were found consistently weak.</t>
+  </si>
+  <si>
+    <t>Any project overexpenditure is highlighted for action through the quality assurance process.</t>
+  </si>
+  <si>
+    <t>Аккредитация - это хотя бы минимальная гарантия качества.</t>
+  </si>
+  <si>
+    <t>Поинтересуйтесь, действует ли гарантия качества.</t>
+  </si>
+  <si>
+    <t>В обязанности сотрудника на данной должности входят контроль качества, развитие карьеры и профессиональная подготовка, управление ревизорской деятельностью и консультирование.</t>
+  </si>
+  <si>
+    <t>Чтобы настроить память переводов, глоссарии и контроль качества, используйте переключатель Расширенные настройки.</t>
+  </si>
+  <si>
+    <t>Направление научной деятельности: технология машиностроения в легкой промышленности, технологическое обеспечение качества клеевых соединений, качество и конкурентоспособность продукции.</t>
+  </si>
+  <si>
+    <t>Начало карьеры в любой области работы часто влечет за собой начало более низкого уровня, и обеспечение качества ничем не отличается.</t>
+  </si>
+  <si>
+    <t>Аннотированная запись должна пройти контроль качества перед включением в UniProtKB/ Swiss-Prot.</t>
+  </si>
+  <si>
+    <t>Помимо этого, мы даем гарантию качества на все товары.</t>
+  </si>
+  <si>
+    <t>Другим преимуществом, которое стоит отметить, является встроенная функция контроля качества.</t>
+  </si>
+  <si>
+    <t>И, наконец, вы никогда не должны идти на компромисс по обеспечению качества.</t>
+  </si>
+  <si>
+    <t>Соответственно, в стратегии мониторинга следует отразить вопросы методологии, подготовки кадров и контроля качества.</t>
+  </si>
+  <si>
+    <t>Образцы, которые брались, включали в себя режим обеспечения качества и контроля за качеством.</t>
+  </si>
+  <si>
+    <t>Благодаря осуществлению программ гарантии качества и стандартизации и обеспечения техники безопасности.</t>
+  </si>
+  <si>
+    <t>Было выявлено, что во всех случаях последующая деятельность руководства и процессы обеспечения качества оставляют желать лучшего.</t>
+  </si>
+  <si>
+    <t>В ходе процедуры обеспечения качества все случаи перерасхода средств по проектам отмечаются на предмет принятия соответствующих мер.</t>
+  </si>
+  <si>
+    <t>External &lt;em&gt;quality assurance&lt;/em&gt; in particular is much better developed than before.</t>
+  </si>
+  <si>
+    <t>Accreditation gives a minimum &lt;em&gt;quality assurance&lt;/em&gt;.</t>
+  </si>
+  <si>
+    <t>The responsibilities include &lt;em&gt;quality assurance&lt;/em&gt;, career development and training, audit direction and consultation.</t>
+  </si>
+  <si>
+    <t>To set up a translation memories, glossaries and &lt;em&gt;quality assurance&lt;/em&gt;, use the Advanced Settings switch.</t>
+  </si>
+  <si>
+    <t>Beginning a career in any field of work often entails starting out a lower level, and &lt;em&gt;quality assurance&lt;/em&gt; is no different.</t>
+  </si>
+  <si>
+    <t>Therefore we provide &lt;em&gt;quality assurance&lt;/em&gt; for all goods.</t>
+  </si>
+  <si>
+    <t>Remember, these materials carry a &lt;em&gt;quality assurance&lt;/em&gt; of three billion years.</t>
+  </si>
+  <si>
+    <t>Another feature worth noting is the built-in &lt;em&gt;quality assurance&lt;/em&gt; function.</t>
+  </si>
+  <si>
+    <t>And, finally, you should never compromise on &lt;em&gt;quality assurance&lt;/em&gt;.</t>
+  </si>
+  <si>
+    <t>A monitoring strategy should therefore address methodology, training and &lt;em&gt;quality assurance&lt;/em&gt;.</t>
+  </si>
+  <si>
+    <t>Implemented through &lt;em&gt;quality assurance&lt;/em&gt; and standardization and safety programmes.</t>
+  </si>
+  <si>
+    <t>Management follow-up and &lt;em&gt;quality assurance&lt;/em&gt; processes were found consistently weak.</t>
+  </si>
+  <si>
+    <t>Most persistent organic pollutant analyses described in the report included &lt;em&gt;quality assurance&lt;/em&gt; and quality control procedures.</t>
+  </si>
+  <si>
+    <t>Any project overexpenditure is highlighted for action through the &lt;em&gt;quality assurance&lt;/em&gt; process.</t>
+  </si>
+  <si>
+    <t>В частности, в Российской Федерации внешнее &lt;em&gt;обеспечение качества&lt;/em&gt; является гораздо более развитым, чем прежде.</t>
+  </si>
+  <si>
+    <t>Аккредитация - это хотя бы минимальная &lt;em&gt;гарантия качества&lt;/em&gt;.</t>
+  </si>
+  <si>
+    <t>Поинтересуйтесь, действует ли &lt;em&gt;гарантия качества&lt;/em&gt;.</t>
+  </si>
+  <si>
+    <t>В обязанности сотрудника на данной должности входят &lt;em&gt;контроль качества&lt;/em&gt;, развитие карьеры и профессиональная подготовка, управление ревизорской деятельностью и консультирование.</t>
+  </si>
+  <si>
+    <t>Чтобы настроить память переводов, глоссарии и &lt;em&gt;контроль качества&lt;/em&gt;, используйте переключатель Расширенные настройки.</t>
+  </si>
+  <si>
+    <t>Направление научной деятельности: технология машиностроения в легкой промышленности, технологическое &lt;em&gt;обеспечение качества&lt;/em&gt; клеевых соединений, качество и конкурентоспособность продукции.</t>
+  </si>
+  <si>
+    <t>Начало карьеры в любой области работы часто влечет за собой начало более низкого уровня, и &lt;em&gt;обеспечение качества&lt;/em&gt; ничем не отличается.</t>
+  </si>
+  <si>
+    <t>Аннотированная запись должна пройти &lt;em&gt;контроль качества&lt;/em&gt; перед включением в UniProtKB/ Swiss-Prot.</t>
+  </si>
+  <si>
+    <t>Помимо этого, мы даем &lt;em&gt;гарантию качества&lt;/em&gt; на все товары.</t>
+  </si>
+  <si>
+    <t>Другим преимуществом, которое стоит отметить, является встроенная функция &lt;em&gt;контроля качества&lt;/em&gt;.</t>
+  </si>
+  <si>
+    <t>И, наконец, вы никогда не должны идти на компромисс по &lt;em&gt;обеспечению качества&lt;/em&gt;.</t>
+  </si>
+  <si>
+    <t>Соответственно, в стратегии мониторинга следует отразить вопросы методологии, подготовки кадров и &lt;em&gt;контроля качества&lt;/em&gt;.</t>
+  </si>
+  <si>
+    <t>Образцы, которые брались, включали в себя режим &lt;em&gt;обеспечения качества&lt;/em&gt; и контроля за &lt;em&gt;качеством&lt;/em&gt;.</t>
+  </si>
+  <si>
+    <t>Благодаря осуществлению программ &lt;em&gt;гарантии качества&lt;/em&gt; и стандартизации и обеспечения техники безопасности.</t>
+  </si>
+  <si>
+    <t>Было выявлено, что во всех случаях последующая деятельность руководства и процессы &lt;em&gt;обеспечения качества&lt;/em&gt; оставляют желать лучшего.</t>
+  </si>
+  <si>
+    <t>Большинство анализов стойких органических загрязнителей, о которых идет речь в докладе, проводились с &lt;em&gt;соблюдением&lt;/em&gt; процедур &lt;em&gt;гарантий&lt;/em&gt; и контроля качества.</t>
+  </si>
+  <si>
+    <t>В ходе процедуры &lt;em&gt;обеспечения качества&lt;/em&gt; все случаи перерасхода средств по проектам отмечаются на предмет принятия соответствующих мер.</t>
+  </si>
+  <si>
+    <t>Most persistent organic pollutant analyses described in the report included quality assurance and quality control procedures.</t>
+  </si>
+  <si>
+    <t>В частности, в Российской Федерации внешнее обеспечение качества является гораздо более развитым, чем прежде.</t>
+  </si>
+  <si>
+    <t>Ask if there are any &lt;em&gt;quality assurance&lt;/em&gt; measures in place.</t>
+  </si>
+  <si>
+    <t>Помните, эти вещества несут на себе гарантию качества сроком в три миллиарда лет.</t>
+  </si>
+  <si>
+    <t>The sampling included a &lt;em&gt;quality assurance&lt;/em&gt; and control regime.</t>
+  </si>
+  <si>
+    <t>Помните, эти вещества несут на себе &lt;em&gt;гарантию качества&lt;/em&gt; сроком в три миллиарда лет.</t>
+  </si>
+  <si>
+    <t>Annotated entries undergo &lt;em&gt;quality assurance&lt;/em&gt; before inclusion into UniProtKB/Swiss-Prot.</t>
+  </si>
+  <si>
+    <t>Большинство анализов стойких органических загрязнителей, о которых идет речь в докладе, проводились с соблюдением процедур гарантий и контроля качества.</t>
+  </si>
+  <si>
+    <t>Direction of scientific activity: mechanical engineering technology in light industry, manufacturing, &lt;em&gt;quality assurance&lt;/em&gt; of glue joints, quality and competitiveness.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -189,6 +348,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -229,9 +395,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -548,186 +714,382 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B397FF4F-EA08-B548-8FAB-64410B102575}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="59.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="58.33203125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="59.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="58.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="59.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="58.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="18" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3" t="s">
+    </row>
+    <row r="19" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>39</v>
+        <v>54</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>